--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Downloads/CheckLists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/Facultate/Anul 3/Semestrul 2/VVSS/Pizza/Docs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEEA5FA-CC45-7E4E-8DBF-01B8C7C89017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D4BB40-D1A5-AE4C-A79D-0A919EE91983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -182,12 +182,6 @@
     <t>1 ora</t>
   </si>
   <si>
-    <t>Lipsesc pachetele din diagrama</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
     <t>Class Diagram</t>
   </si>
   <si>
@@ -201,6 +195,36 @@
   </si>
   <si>
     <t>A01</t>
+  </si>
+  <si>
+    <t>KitchenGUIController - 53</t>
+  </si>
+  <si>
+    <t>Nu este verificat daca exista elemente selectate pentru a le putea da cook.</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>Inainte de a da ready la o comanda, ar trebui verificat ca este si selectata o comanda, altfel va pusca programul.</t>
+  </si>
+  <si>
+    <t>KitchenGUIController - 62</t>
+  </si>
+  <si>
+    <t>Cand se alege cantitatea unui produs nu ar trebui sa poti alege si 0 (nu are sens sa adaugi la comanda "nimic")</t>
+  </si>
+  <si>
+    <t>OrdersGUIController - 131</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>2 ore</t>
+  </si>
+  <si>
+    <t>Nu ar trebui date fisierele de input ca parametru la repository, o solutie mai buna ar fi crearea unui fisier de configurari de unde sa fie extrase</t>
   </si>
 </sst>
 </file>
@@ -415,6 +439,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -456,10 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +624,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>100337</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -990,19 +1014,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1015,7 +1039,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1026,14 +1050,14 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1044,14 +1068,14 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1063,19 +1087,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="22">
         <v>45005</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
@@ -1283,8 +1307,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1303,19 +1327,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1328,7 +1352,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1339,14 +1363,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1357,14 +1381,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1376,19 +1400,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="22">
         <v>45005</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
@@ -1404,18 +1428,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1424,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
@@ -1439,13 +1463,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1605,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1626,19 +1650,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1651,7 +1675,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1662,14 +1686,14 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1680,14 +1704,14 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
@@ -1699,19 +1723,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="22">
         <v>45005</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
@@ -1727,31 +1751,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
@@ -1920,7 +1962,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1966,19 +2010,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1998,8 +2042,8 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -2010,8 +2054,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2023,8 +2067,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2254,11 +2298,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/Facultate/Anul 3/Semestrul 2/VVSS/Pizza/Docs/Lab01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Downloads\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D4BB40-D1A5-AE4C-A79D-0A919EE91983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4D989-3945-4A5F-A57E-4D2E89FFAC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -225,6 +225,42 @@
   </si>
   <si>
     <t>Nu ar trebui date fisierele de input ca parametru la repository, o solutie mai buna ar fi crearea unui fisier de configurari de unde sa fie extrase</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>PaymentRepository - 11</t>
+  </si>
+  <si>
+    <t>private static String filename;</t>
+  </si>
+  <si>
+    <t>private String filename;</t>
+  </si>
+  <si>
+    <t>PaymentRepository - 30</t>
+  </si>
+  <si>
+    <t>//ClassLoader classLoader = PaymentRepository.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t>Enum values should be compared with "=="</t>
+  </si>
+  <si>
+    <t>PizzaService - 35</t>
+  </si>
+  <si>
+    <t>if (p.getType().equals(type))</t>
+  </si>
+  <si>
+    <t>if (p.getType() == type)</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>Static fields should not be updated in constructors</t>
   </si>
 </sst>
 </file>
@@ -997,19 +1033,19 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1020,7 +1056,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1046,7 +1082,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1100,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1118,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1092,7 +1128,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1137,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1129,7 +1165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1144,7 +1180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -1159,7 +1195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1168,7 +1204,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1177,7 +1213,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1186,7 +1222,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1195,7 +1231,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1204,7 +1240,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1213,7 +1249,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1222,7 +1258,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1231,7 +1267,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1240,7 +1276,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1249,7 +1285,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1258,7 +1294,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1267,7 +1303,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1276,7 +1312,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -1307,22 +1343,22 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1333,7 +1369,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1395,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1413,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1405,7 +1441,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1450,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1442,7 +1478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1457,7 +1493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1472,7 +1508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1481,7 +1517,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1490,7 +1526,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1499,7 +1535,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1508,7 +1544,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1517,7 +1553,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1526,7 +1562,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1535,7 +1571,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1544,7 +1580,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1553,7 +1589,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1562,7 +1598,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1571,7 +1607,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1580,7 +1616,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1589,7 +1625,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1598,7 +1634,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1629,23 +1665,23 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.83203125" style="6"/>
-    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1656,7 +1692,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
@@ -1671,7 +1707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1718,7 +1754,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1728,7 +1764,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1737,7 +1773,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1751,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1765,7 +1801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1780,7 +1816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1795,7 +1831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1804,7 +1840,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1813,7 +1849,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1822,7 +1858,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1831,7 +1867,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1840,7 +1876,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1849,7 +1885,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1858,7 +1894,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1867,7 +1903,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1876,7 +1912,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1885,7 +1921,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1894,7 +1930,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1903,7 +1939,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1912,7 +1948,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1921,7 +1957,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1930,7 +1966,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1939,7 +1975,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1948,7 +1984,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1957,7 +1993,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -1988,24 +2024,24 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="6"/>
-    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -2016,7 +2052,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
@@ -2031,47 +2067,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="22">
+        <v>45005</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2088,36 +2142,58 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2127,7 +2203,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2137,7 +2213,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2147,7 +2223,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2157,7 +2233,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2167,7 +2243,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2177,7 +2253,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2187,7 +2263,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2197,7 +2273,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2207,7 +2283,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2217,7 +2293,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2227,7 +2303,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2237,7 +2313,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2247,7 +2323,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2257,7 +2333,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2267,7 +2343,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2277,7 +2353,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2287,7 +2363,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2297,13 +2373,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Downloads\03_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4D989-3945-4A5F-A57E-4D2E89FFAC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B415363-AA84-4622-9332-6E3F6A704197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -261,6 +261,31 @@
   </si>
   <si>
     <t>Static fields should not be updated in constructors</t>
+  </si>
+  <si>
+    <t>Control structures should use curly braces</t>
+  </si>
+  <si>
+    <t>if (p.getType() == type)
+                total+=p.getAmount();</t>
+  </si>
+  <si>
+    <t>if (p.getType() == type) {
+                total+=p.getAmount();
+            }</t>
+  </si>
+  <si>
+    <t>Optional value should only be accessed after calling isPresent()</t>
+  </si>
+  <si>
+    <t>PaymentAlert - 56</t>
+  </si>
+  <si>
+    <t>if (result.get() == cardPayment) {</t>
+  </si>
+  <si>
+    <t>if (result.isPresent()) {
+            if (result.get() == cardPayment) {</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1054,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,8 +1690,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E7"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,8 +2049,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,25 +2218,41 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
